--- a/values/volume-dati.xlsx
+++ b/values/volume-dati.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
   <si>
     <t xml:space="preserve">Concetto</t>
   </si>
@@ -109,13 +109,10 @@
     <t xml:space="preserve">ROV</t>
   </si>
   <si>
-    <t xml:space="preserve">Operatore</t>
+    <t xml:space="preserve">Membro</t>
   </si>
   <si>
     <t xml:space="preserve">Missione</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guida</t>
   </si>
 </sst>
 </file>
@@ -387,14 +384,14 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
+      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="16.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="15.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="15.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="5.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="1" width="15.37"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="1" width="11.52"/>
   </cols>
@@ -609,7 +606,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="7" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="9"/>
@@ -643,7 +640,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="7" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>26</v>
@@ -663,7 +660,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="7" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>28</v>
@@ -683,7 +680,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="7" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>30</v>
@@ -695,19 +692,13 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="7" t="n">
-        <v>8000</v>
-      </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="16"/>
+    <row r="17" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0"/>
+      <c r="B17" s="0"/>
+      <c r="C17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="0"/>
+      <c r="G17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0"/>
@@ -737,24 +728,21 @@
       <c r="A21" s="0"/>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
-      <c r="E21" s="0"/>
-      <c r="F21" s="0"/>
-      <c r="G21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0"/>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
     </row>
-    <row r="23" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0"/>
-      <c r="B23" s="0"/>
-      <c r="C23" s="0"/>
-    </row>
-    <row r="24" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="16"/>
+    <row r="23" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+    </row>
+    <row r="24" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0"/>
+      <c r="B24" s="0"/>
+      <c r="C24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0"/>
@@ -796,10 +784,10 @@
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
     </row>
-    <row r="33" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0"/>
-      <c r="B33" s="0"/>
-      <c r="C33" s="0"/>
+    <row r="33" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="14"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="16"/>
     </row>
     <row r="34" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="14"/>
@@ -821,11 +809,7 @@
       <c r="B37" s="15"/>
       <c r="C37" s="16"/>
     </row>
-    <row r="38" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="14"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="16"/>
-    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
